--- a/data/air_info/柏林-巴黎.xlsx
+++ b/data/air_info/柏林-巴黎.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22881236-B788-48FB-97D2-B25FDD097C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB21AF-6623-49A0-8350-8C6D9F55185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,6 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -462,7 +461,6 @@
     <col min="5" max="5" width="52.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.36328125" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" customWidth="1"/>
     <col min="9" max="9" width="26.54296875" customWidth="1"/>
     <col min="10" max="10" width="22.08984375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -511,8 +509,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1500,2500)</f>
-        <v>1637</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,8 +532,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" ca="1" si="0">RANDBETWEEN(1500,2500)</f>
-        <v>1782</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,8 +555,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1627</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,8 +578,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2239</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,8 +601,7 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2349</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,8 +624,7 @@
         <v>7</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2316</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,8 +647,7 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2483</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,8 +670,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2491</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -702,9 +692,8 @@
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1822</v>
+      <c r="G10" s="1">
+        <v>1919</v>
       </c>
     </row>
   </sheetData>

--- a/data/air_info/柏林-巴黎.xlsx
+++ b/data/air_info/柏林-巴黎.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB21AF-6623-49A0-8350-8C6D9F55185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C424FFF-1344-4007-8396-465486A95FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
-  <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>易捷航空经济舱Airbus A320U2 4898</t>
   </si>
@@ -45,9 +42,6 @@
     <t>法航经济舱Airbus A220-300 PassengerAF 1735</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>易捷航空经济舱Airbus A320U2 4634</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>易捷航空经济舱Airbus A319U2 4632</t>
   </si>
   <si>
-    <t>法航经济舱Airbus A320AF 1835</t>
-  </si>
-  <si>
     <t>易捷航空经济舱Airbus A320U2 5153</t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -468,25 +465,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -494,19 +491,19 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>0.46875</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>2290</v>
@@ -517,22 +514,22 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>0.4861111111111111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2408</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,19 +537,19 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>2461</v>
@@ -563,19 +560,19 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>2176</v>
@@ -586,22 +583,22 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2191</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,19 +606,19 @@
         <v>0.71875</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>0.79861111111111116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>2261</v>
@@ -629,70 +626,47 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>0.82986111111111116</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>2299</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>0.84722222222222221</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.87152777777777779</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
         <v>1919</v>
       </c>
     </row>
